--- a/minigame33/Assets/Editor/ExcelTools/xlsx/DailyEvent.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/DailyEvent.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G8:G9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -491,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>

--- a/minigame33/Assets/Editor/ExcelTools/xlsx/DailyEvent.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/DailyEvent.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MINIGAME\MiniGame\minigame33\Assets\Editor\ExcelTools\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\minigame\MiniGame\minigame33\Assets\Editor\ExcelTools\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{864677E2-B99E-4AB6-94CE-14F058643608}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyEvent" sheetId="1" r:id="rId1"/>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,20 +432,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="82.25" customWidth="1"/>
-    <col min="4" max="4" width="48.5" customWidth="1"/>
+    <col min="3" max="3" width="86" customWidth="1"/>
+    <col min="4" max="4" width="48.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -469,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -483,7 +484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -497,7 +498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>

--- a/minigame33/Assets/Editor/ExcelTools/xlsx/DailyEvent.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/DailyEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\minigame\MiniGame\minigame33\Assets\Editor\ExcelTools\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{864677E2-B99E-4AB6-94CE-14F058643608}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6894FEC5-3988-47B3-9B79-8A81D35EC67C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>事件名字</t>
   </si>
@@ -58,16 +58,29 @@
     <t>制造</t>
   </si>
   <si>
+    <t>采集是最稳定、安全的食物来源。无论是愚蠢的猴子还是部落的长者，没有人能在一树甜美多汁的浆果前保持镇静。是否选择采集？</t>
+  </si>
+  <si>
+    <t>狩猎带来大量食物，但也伴随危险。如果你足够聪明，或许能化险为夷。麋鹿、野牛、长毛象，它们会告诉你谁才是这片土地的主人。是否选择狩猎？</t>
+  </si>
+  <si>
+    <t>制造能提供更多的武器，甚至会产生一些有趣的小发明，如果你有足够的运气。最强大的战士要配上最锋利的武器，就像最美丽的姑娘穿最光滑的兽皮。是否选择制造？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭祀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭祀祭祀祭祀祭祀祭祀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Textrues/Event/zhizao</t>
-  </si>
-  <si>
-    <t>采集是最稳定、安全的食物来源。无论是愚蠢的猴子还是部落的长者，没有人能在一树甜美多汁的浆果前保持镇静。是否选择采集？</t>
-  </si>
-  <si>
-    <t>狩猎带来大量食物，但也伴随危险。如果你足够聪明，或许能化险为夷。麋鹿、野牛、长毛象，它们会告诉你谁才是这片土地的主人。是否选择狩猎？</t>
-  </si>
-  <si>
-    <t>制造能提供更多的武器，甚至会产生一些有趣的小发明，如果你有足够的运气。最强大的战士要配上最锋利的武器，就像最美丽的姑娘穿最光滑的兽皮。是否选择制造？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textrues/Event/jisi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -478,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -492,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -506,10 +519,24 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/minigame33/Assets/Editor/ExcelTools/xlsx/DailyEvent.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/DailyEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\minigame\MiniGame\minigame33\Assets\Editor\ExcelTools\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6894FEC5-3988-47B3-9B79-8A81D35EC67C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BBAAFAC-25EB-4FC4-AB68-1919CDC142A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>事件名字</t>
   </si>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>Textrues/Event/jisi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventNotify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnGather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHunt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnForge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnSacrifice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -446,19 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="86" customWidth="1"/>
-    <col min="4" max="4" width="48.46484375" customWidth="1"/>
+    <col min="4" max="4" width="30.46484375" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +493,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -482,8 +510,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -496,8 +527,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -510,8 +544,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -524,8 +561,11 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -537,6 +577,9 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
